--- a/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16E9DDD-C5A6-4ED9-8B17-88BC81DA5A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE70438F-E512-41A0-8499-2812D6703061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F5C550DA-B938-42B4-ADC2-22E1F4059A7A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E3160E12-63BC-4C58-A325-E64B618F1209}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -116,6 +116,63 @@
     <t>1,47%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -171,63 +228,6 @@
   </si>
   <si>
     <t>2,17%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
   </si>
   <si>
     <t>98,76%</t>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F26B82-2EB9-4C81-983F-D4FB2C0E59A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B810987-157B-47EF-8ED3-AD952ABB3B38}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -940,10 +940,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>396208</v>
+        <v>201693</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -955,10 +955,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>458</v>
+        <v>278</v>
       </c>
       <c r="I7" s="7">
-        <v>348000</v>
+        <v>196199</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -970,10 +970,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>930</v>
+        <v>544</v>
       </c>
       <c r="N7" s="7">
-        <v>744207</v>
+        <v>397892</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -991,10 +991,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>6502</v>
+        <v>2484</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1009,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2395</v>
+        <v>2068</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1021,10 +1021,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>8898</v>
+        <v>4552</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1042,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1057,10 +1057,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350395</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1072,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>753105</v>
+        <v>402444</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1095,10 +1095,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>472</v>
       </c>
       <c r="D10" s="7">
-        <v>201693</v>
+        <v>396208</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1110,10 +1110,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>278</v>
+        <v>458</v>
       </c>
       <c r="I10" s="7">
-        <v>196199</v>
+        <v>348000</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1125,10 +1125,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>544</v>
+        <v>930</v>
       </c>
       <c r="N10" s="7">
-        <v>397892</v>
+        <v>744207</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1146,10 +1146,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2484</v>
+        <v>6502</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2068</v>
+        <v>2395</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1176,10 +1176,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>4552</v>
+        <v>8898</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1197,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204177</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1212,10 +1212,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350395</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1227,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>402444</v>
+        <v>753105</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE70438F-E512-41A0-8499-2812D6703061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{917E3E5B-04A8-4EA7-BE80-65DD35ADFBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E3160E12-63BC-4C58-A325-E64B618F1209}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B95BAC40-692C-45C6-9CD4-7BBB508E321D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -65,7 +65,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -74,208 +98,232 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>98,34%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -286,7 +334,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,39 +430,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -466,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -577,13 +625,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -592,6 +633,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -656,19 +704,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B810987-157B-47EF-8ED3-AD952ABB3B38}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC8F2-1535-4845-AE5E-AC2A3F497A67}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -785,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -800,34 +868,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>102805</v>
+        <v>413</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>424</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>220743</v>
+        <v>413</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -836,10 +904,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>58503</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -851,34 +919,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="I5" s="7">
-        <v>998</v>
+        <v>56956</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>998</v>
+        <v>115458</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -887,49 +955,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -940,49 +1008,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>201693</v>
+        <v>842</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1931</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>278</v>
-      </c>
-      <c r="I7" s="7">
-        <v>196199</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2773</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="7">
-        <v>544</v>
-      </c>
-      <c r="N7" s="7">
-        <v>397892</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -991,49 +1059,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="D8" s="7">
-        <v>2484</v>
+        <v>174457</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>255</v>
+      </c>
+      <c r="I8" s="7">
+        <v>156834</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2068</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>529</v>
+      </c>
+      <c r="N8" s="7">
+        <v>331290</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4552</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1042,102 +1110,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>204177</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>402444</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>396208</v>
+        <v>2947</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2372</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
-        <v>458</v>
-      </c>
-      <c r="I10" s="7">
-        <v>348000</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5319</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="7">
-        <v>930</v>
-      </c>
-      <c r="N10" s="7">
-        <v>744207</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1146,49 +1214,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7">
-        <v>6502</v>
+        <v>198653</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>229</v>
+      </c>
+      <c r="I11" s="7">
+        <v>173327</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2395</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>467</v>
+      </c>
+      <c r="N11" s="7">
+        <v>371980</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8898</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1197,102 +1265,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>201600</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>350395</v>
+        <v>175699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>753105</v>
+        <v>377299</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>965</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>715838</v>
+        <v>5198</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>745</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="7">
-        <v>933</v>
-      </c>
-      <c r="I13" s="7">
-        <v>647004</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5943</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="7">
-        <v>1898</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1362843</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,49 +1369,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>8987</v>
+        <v>284226</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>341</v>
+      </c>
+      <c r="I14" s="7">
+        <v>259888</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>678</v>
+      </c>
+      <c r="N14" s="7">
+        <v>544114</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5461</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M14" s="7">
-        <v>19</v>
-      </c>
-      <c r="N14" s="7">
-        <v>14448</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,55 +1420,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8987</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5461</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
+        <v>14448</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>965</v>
+      </c>
+      <c r="D17" s="7">
+        <v>715838</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
+        <v>933</v>
+      </c>
+      <c r="I17" s="7">
+        <v>647004</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1898</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1362843</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>724825</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652465</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1917</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1377291</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{917E3E5B-04A8-4EA7-BE80-65DD35ADFBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED76938-4971-46E9-8F3D-9E18FC98DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B95BAC40-692C-45C6-9CD4-7BBB508E321D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57D21AD5-DBF1-49AD-9877-FAB29A83480D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,28%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,21%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -122,7 +122,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -131,28 +131,28 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>96,57%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -161,10 +161,10 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -173,10 +173,7 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -185,31 +182,28 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>96,06%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -218,10 +212,10 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -230,97 +224,97 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>98,58%</t>
+  </si>
+  <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -735,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC8F2-1535-4845-AE5E-AC2A3F497A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479D12B1-0B69-450D-8D2B-3F9247FCB103}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1172,10 +1166,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1184,13 +1178,13 @@
         <v>2372</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1199,13 +1193,13 @@
         <v>5319</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1220,13 +1214,13 @@
         <v>198653</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -1235,13 +1229,13 @@
         <v>173327</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>467</v>
@@ -1250,13 +1244,13 @@
         <v>371980</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,7 +1306,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1324,13 +1318,13 @@
         <v>5198</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1339,13 +1333,13 @@
         <v>745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1354,13 +1348,13 @@
         <v>5943</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1375,13 +1369,13 @@
         <v>284226</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -1390,10 +1384,10 @@
         <v>259888</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1512,10 +1506,10 @@
         <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,13 +1524,13 @@
         <v>715838</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>933</v>
@@ -1545,13 +1539,13 @@
         <v>647004</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>1898</v>
@@ -1560,13 +1554,13 @@
         <v>1362843</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,7 +1616,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED76938-4971-46E9-8F3D-9E18FC98DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{188093D1-2676-4D7C-A0CF-3BEC0A9FFA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57D21AD5-DBF1-49AD-9877-FAB29A83480D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0597FB6E-49A4-461F-B12C-2F9E294B6C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,30 +71,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -104,217 +110,205 @@
     <t>100%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -729,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479D12B1-0B69-450D-8D2B-3F9247FCB103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400E6A61-EE42-40DB-862E-19875D6CCDAC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -847,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -862,16 +856,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -880,13 +874,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -898,10 +892,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>58503</v>
+        <v>57086</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -913,25 +907,25 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>56956</v>
+        <v>61444</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>115458</v>
+        <v>118530</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -940,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -949,49 +943,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1002,31 +996,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>842</v>
+        <v>1897</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1931</v>
+        <v>881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>31</v>
@@ -1035,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>2773</v>
+        <v>2778</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -1053,10 +1047,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D8" s="7">
-        <v>174457</v>
+        <v>157402</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1065,28 +1059,28 @@
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="I8" s="7">
-        <v>156834</v>
+        <v>181673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>529</v>
       </c>
       <c r="N8" s="7">
-        <v>331290</v>
+        <v>339075</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1104,49 +1098,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,49 +1151,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2947</v>
+        <v>2337</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2372</v>
+        <v>3270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>5319</v>
+        <v>5606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1208,49 +1202,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>229</v>
+      </c>
+      <c r="D11" s="7">
+        <v>170351</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
         <v>238</v>
       </c>
-      <c r="D11" s="7">
-        <v>198653</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7">
-        <v>229</v>
-      </c>
       <c r="I11" s="7">
-        <v>173327</v>
+        <v>208295</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>467</v>
       </c>
       <c r="N11" s="7">
-        <v>371980</v>
+        <v>378647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1259,102 +1253,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7">
+        <v>172688</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201600</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>232</v>
-      </c>
       <c r="I12" s="7">
-        <v>175699</v>
+        <v>211565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>377299</v>
+        <v>384253</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>5198</v>
+        <v>735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>745</v>
+        <v>5536</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>5943</v>
+        <v>6271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,40 +1357,40 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7">
-        <v>284226</v>
+        <v>274723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>337</v>
+      </c>
+      <c r="I14" s="7">
+        <v>299947</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="7">
-        <v>341</v>
-      </c>
-      <c r="I14" s="7">
-        <v>259888</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
       </c>
       <c r="N14" s="7">
-        <v>544114</v>
+        <v>574669</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>74</v>
@@ -1417,46 +1411,46 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,49 +1461,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5394</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>8987</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>9687</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5461</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>14448</v>
+        <v>15080</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,49 +1512,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>933</v>
+      </c>
+      <c r="D17" s="7">
+        <v>659562</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="7">
         <v>965</v>
       </c>
-      <c r="D17" s="7">
-        <v>715838</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>751360</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>933</v>
-      </c>
-      <c r="I17" s="7">
-        <v>647004</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1898</v>
       </c>
       <c r="N17" s="7">
-        <v>1362843</v>
+        <v>1410923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,54 +1563,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664956</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724825</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>652465</v>
+        <v>761047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>1377291</v>
+        <v>1426003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
